--- a/data/230428 trucking2303_shared with AAG_color.xlsx
+++ b/data/230428 trucking2303_shared with AAG_color.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/66789/Documents/1 Projects/Case Work/Project Lightning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/66789/Documents/GitHub/aag-bain-f2fw/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D52F795-13AC-C048-8ABC-5F620D75F297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EF2542-1B0D-5743-BD37-656BC98ADBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2080" yWindow="-19860" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17920" yWindow="500" windowWidth="17920" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="8" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4592" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3754" uniqueCount="174">
   <si>
     <t>Updated:</t>
   </si>
@@ -1048,24 +1048,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="5" xr:uid="{8F528789-4A42-4992-BC06-E86E2606896A}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1547,12 +1530,12 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:MY19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10229,842 +10212,842 @@
       <c r="B10" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="T10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="U10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="V10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="W10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="X10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AR10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AT10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AU10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AV10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AX10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AY10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AZ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BA10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BB10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BC10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BE10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BF10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BG10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BH10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BI10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BJ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BK10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BM10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BN10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BO10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BP10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BQ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BR10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BS10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BT10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BU10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BV10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BW10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BX10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BY10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BZ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CA10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CB10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CC10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CD10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CE10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CF10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CG10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CH10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CI10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CJ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CK10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CL10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CM10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CN10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CO10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CP10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CQ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CR10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CS10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CT10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CU10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CV10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CW10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CX10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CY10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CZ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DA10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DB10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DC10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DD10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DE10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DF10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DG10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DH10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DI10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DJ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DK10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DL10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DM10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DN10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DO10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DP10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DQ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DR10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DS10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DT10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DU10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DV10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DW10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DX10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DY10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DZ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EA10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EB10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EC10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="ED10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EE10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EF10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EG10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EH10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EI10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EJ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EK10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EL10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EM10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EN10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EO10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EP10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EQ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="ER10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="ES10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="ET10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EU10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EV10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EW10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EX10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EY10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EZ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FA10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FB10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FC10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FD10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FE10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FF10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FG10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FH10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FI10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FJ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FK10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FL10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FM10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FN10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FO10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FP10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FQ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FR10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FS10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FT10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FU10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FV10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FW10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FX10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FY10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FZ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GA10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GB10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GC10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GD10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GE10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GF10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GG10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GH10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GI10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GJ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GK10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GL10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GM10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GN10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GO10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GP10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GQ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GR10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GS10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GT10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GU10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GV10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GW10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GX10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GY10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GZ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HA10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HB10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HC10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HD10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HE10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HF10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HG10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HH10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HI10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HJ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HK10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HL10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HM10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HN10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HO10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HP10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HQ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HR10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HS10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HT10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HU10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HV10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HW10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HX10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HY10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HZ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IA10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IB10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IC10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="ID10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IE10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IF10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IG10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IH10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="II10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IJ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IK10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IL10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IM10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IN10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IO10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IP10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IQ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IR10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IS10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IT10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IU10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IV10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IW10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IX10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IY10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IZ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JA10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JB10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JC10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JD10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JE10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JF10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JG10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JH10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JI10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JJ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JK10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JL10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JM10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JN10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JO10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JP10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JQ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JR10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JS10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JT10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JU10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JV10" s="43" t="s">
-        <v>33</v>
+      <c r="D10" s="43">
+        <v>12892.9147333945</v>
+      </c>
+      <c r="E10" s="43">
+        <v>12913.661881019329</v>
+      </c>
+      <c r="F10" s="43">
+        <v>12997.786476381363</v>
+      </c>
+      <c r="G10" s="43">
+        <v>13110.739998881023</v>
+      </c>
+      <c r="H10" s="43">
+        <v>13193.018661252914</v>
+      </c>
+      <c r="I10" s="43">
+        <v>13207.746020762126</v>
+      </c>
+      <c r="J10" s="43">
+        <v>13183.043288200131</v>
+      </c>
+      <c r="K10" s="43">
+        <v>13169.533244594451</v>
+      </c>
+      <c r="L10" s="43">
+        <v>13199.600248718261</v>
+      </c>
+      <c r="M10" s="43">
+        <v>13249.37289330267</v>
+      </c>
+      <c r="N10" s="43">
+        <v>13277.846128209432</v>
+      </c>
+      <c r="O10" s="43">
+        <v>13260.034078290386</v>
+      </c>
+      <c r="P10" s="43">
+        <v>13221.175733996975</v>
+      </c>
+      <c r="Q10" s="43">
+        <v>13204.010153361729</v>
+      </c>
+      <c r="R10" s="43">
+        <v>13231.092193111297</v>
+      </c>
+      <c r="S10" s="43">
+        <v>13281.449101257323</v>
+      </c>
+      <c r="T10" s="43">
+        <v>13315.370062428135</v>
+      </c>
+      <c r="U10" s="43">
+        <v>13306.896967824299</v>
+      </c>
+      <c r="V10" s="43">
+        <v>13271.653241311351</v>
+      </c>
+      <c r="W10" s="43">
+        <v>13239.299648992477</v>
+      </c>
+      <c r="X10" s="43">
+        <v>13232.984146181743</v>
+      </c>
+      <c r="Y10" s="43">
+        <v>13250.598858864078</v>
+      </c>
+      <c r="Z10" s="43">
+        <v>13282.737284819284</v>
+      </c>
+      <c r="AA10" s="43">
+        <v>13321.237704307803</v>
+      </c>
+      <c r="AB10" s="43">
+        <v>13361.461593443348</v>
+      </c>
+      <c r="AC10" s="43">
+        <v>13396.830752432346</v>
+      </c>
+      <c r="AD10" s="43">
+        <v>13426.623533356575</v>
+      </c>
+      <c r="AE10" s="43">
+        <v>13453.020683495204</v>
+      </c>
+      <c r="AF10" s="43">
+        <v>13477.534444147541</v>
+      </c>
+      <c r="AG10" s="43">
+        <v>13501.506924215953</v>
+      </c>
+      <c r="AH10" s="43">
+        <v>13522.023492413182</v>
+      </c>
+      <c r="AI10" s="43">
+        <v>13534.995256639297</v>
+      </c>
+      <c r="AJ10" s="43">
+        <v>13538.419692548116</v>
+      </c>
+      <c r="AK10" s="43">
+        <v>13538.936184360135</v>
+      </c>
+      <c r="AL10" s="43">
+        <v>13545.403576532999</v>
+      </c>
+      <c r="AM10" s="43">
+        <v>13563.793645181964</v>
+      </c>
+      <c r="AN10" s="43">
+        <v>13591.22792840773</v>
+      </c>
+      <c r="AO10" s="43">
+        <v>13619.626617567879</v>
+      </c>
+      <c r="AP10" s="43">
+        <v>13647.46609435543</v>
+      </c>
+      <c r="AQ10" s="43">
+        <v>13682.431678771973</v>
+      </c>
+      <c r="AR10" s="43">
+        <v>13733.956319501323</v>
+      </c>
+      <c r="AS10" s="43">
+        <v>13807.171357981364</v>
+      </c>
+      <c r="AT10" s="43">
+        <v>13892.447247905116</v>
+      </c>
+      <c r="AU10" s="43">
+        <v>13976.189714631726</v>
+      </c>
+      <c r="AV10" s="43">
+        <v>14044.223272053401</v>
+      </c>
+      <c r="AW10" s="43">
+        <v>14096.497718334198</v>
+      </c>
+      <c r="AX10" s="43">
+        <v>14135.060675589244</v>
+      </c>
+      <c r="AY10" s="43">
+        <v>14162.697370036956</v>
+      </c>
+      <c r="AZ10" s="43">
+        <v>14185.777645049557</v>
+      </c>
+      <c r="BA10" s="43">
+        <v>14209.994219500442</v>
+      </c>
+      <c r="BB10" s="43">
+        <v>14241.096795020565</v>
+      </c>
+      <c r="BC10" s="43">
+        <v>14279.32224146525</v>
+      </c>
+      <c r="BD10" s="43">
+        <v>14322.187108555148</v>
+      </c>
+      <c r="BE10" s="43">
+        <v>14367.569313081105</v>
+      </c>
+      <c r="BF10" s="43">
+        <v>14413.572926905847</v>
+      </c>
+      <c r="BG10" s="43">
+        <v>14459.071990197705</v>
+      </c>
+      <c r="BH10" s="43">
+        <v>14502.28505191803</v>
+      </c>
+      <c r="BI10" s="43">
+        <v>14548.181894610005</v>
+      </c>
+      <c r="BJ10" s="43">
+        <v>14602.288001441955</v>
+      </c>
+      <c r="BK10" s="43">
+        <v>14666.208426936981</v>
+      </c>
+      <c r="BL10" s="43">
+        <v>14729.9719905238</v>
+      </c>
+      <c r="BM10" s="43">
+        <v>14775.643015452793</v>
+      </c>
+      <c r="BN10" s="43">
+        <v>14798.677545116794</v>
+      </c>
+      <c r="BO10" s="43">
+        <v>14811.71566212972</v>
+      </c>
+      <c r="BP10" s="43">
+        <v>14833.073577265586</v>
+      </c>
+      <c r="BQ10" s="43">
+        <v>14874.552875264486</v>
+      </c>
+      <c r="BR10" s="43">
+        <v>14924.532733301963</v>
+      </c>
+      <c r="BS10" s="43">
+        <v>14963.944906665432</v>
+      </c>
+      <c r="BT10" s="43">
+        <v>14981.198838297527</v>
+      </c>
+      <c r="BU10" s="43">
+        <v>14994.289364968578</v>
+      </c>
+      <c r="BV10" s="43">
+        <v>15028.990174865723</v>
+      </c>
+      <c r="BW10" s="43">
+        <v>15100.021561161164</v>
+      </c>
+      <c r="BX10" s="43">
+        <v>15188.005457724294</v>
+      </c>
+      <c r="BY10" s="43">
+        <v>15256.587963717324</v>
+      </c>
+      <c r="BZ10" s="43">
+        <v>15288.880249761765</v>
+      </c>
+      <c r="CA10" s="43">
+        <v>15292.15675837199</v>
+      </c>
+      <c r="CB10" s="43">
+        <v>15281.111951458839</v>
+      </c>
+      <c r="CC10" s="43">
+        <v>15271.320058059693</v>
+      </c>
+      <c r="CD10" s="43">
+        <v>15273.499944502308</v>
+      </c>
+      <c r="CE10" s="43">
+        <v>15297.115225022839</v>
+      </c>
+      <c r="CF10" s="43">
+        <v>15344.216459655761</v>
+      </c>
+      <c r="CG10" s="43">
+        <v>15399.651122308547</v>
+      </c>
+      <c r="CH10" s="43">
+        <v>15442.342118072509</v>
+      </c>
+      <c r="CI10" s="43">
+        <v>15459.216376273862</v>
+      </c>
+      <c r="CJ10" s="43">
+        <v>15462.707148644233</v>
+      </c>
+      <c r="CK10" s="43">
+        <v>15472.379866123199</v>
+      </c>
+      <c r="CL10" s="43">
+        <v>15501.14458588631</v>
+      </c>
+      <c r="CM10" s="43">
+        <v>15542.711917622884</v>
+      </c>
+      <c r="CN10" s="43">
+        <v>15581.6765939651</v>
+      </c>
+      <c r="CO10" s="43">
+        <v>15608.818568420411</v>
+      </c>
+      <c r="CP10" s="43">
+        <v>15632.329260180073</v>
+      </c>
+      <c r="CQ10" s="43">
+        <v>15666.883624415244</v>
+      </c>
+      <c r="CR10" s="43">
+        <v>15717.068686930339</v>
+      </c>
+      <c r="CS10" s="43">
+        <v>15764.25844377087</v>
+      </c>
+      <c r="CT10" s="43">
+        <v>15781.887203470866</v>
+      </c>
+      <c r="CU10" s="43">
+        <v>15755.767876409715</v>
+      </c>
+      <c r="CV10" s="43">
+        <v>15711.131908785912</v>
+      </c>
+      <c r="CW10" s="43">
+        <v>15687.866359184529</v>
+      </c>
+      <c r="CX10" s="43">
+        <v>15708.749434440366</v>
+      </c>
+      <c r="CY10" s="43">
+        <v>15757.289081319173</v>
+      </c>
+      <c r="CZ10" s="43">
+        <v>15802.485668366955</v>
+      </c>
+      <c r="DA10" s="43">
+        <v>15818.220495986938</v>
+      </c>
+      <c r="DB10" s="43">
+        <v>15793.67642679522</v>
+      </c>
+      <c r="DC10" s="43">
+        <v>15722.518761665591</v>
+      </c>
+      <c r="DD10" s="43">
+        <v>15609.255103556316</v>
+      </c>
+      <c r="DE10" s="43">
+        <v>15476.642127990723</v>
+      </c>
+      <c r="DF10" s="43">
+        <v>15355.147137641907</v>
+      </c>
+      <c r="DG10" s="43">
+        <v>15267.662060522263</v>
+      </c>
+      <c r="DH10" s="43">
+        <v>15212.203268851003</v>
+      </c>
+      <c r="DI10" s="43">
+        <v>15182.281771455493</v>
+      </c>
+      <c r="DJ10" s="43">
+        <v>15167.437389373779</v>
+      </c>
+      <c r="DK10" s="43">
+        <v>15161.753374799093</v>
+      </c>
+      <c r="DL10" s="43">
+        <v>15160.87757313636</v>
+      </c>
+      <c r="DM10" s="43">
+        <v>15162.714865875245</v>
+      </c>
+      <c r="DN10" s="43">
+        <v>15174.954638696487</v>
+      </c>
+      <c r="DO10" s="43">
+        <v>15208.986604136806</v>
+      </c>
+      <c r="DP10" s="43">
+        <v>15267.644850158691</v>
+      </c>
+      <c r="DQ10" s="43">
+        <v>15335.021305699502</v>
+      </c>
+      <c r="DR10" s="43">
+        <v>15388.485861333211</v>
+      </c>
+      <c r="DS10" s="43">
+        <v>15414.2588279478</v>
+      </c>
+      <c r="DT10" s="43">
+        <v>15426.898544311523</v>
+      </c>
+      <c r="DU10" s="43">
+        <v>15448.000843184334</v>
+      </c>
+      <c r="DV10" s="43">
+        <v>15492.49779067501</v>
+      </c>
+      <c r="DW10" s="43">
+        <v>15552.952741495768</v>
+      </c>
+      <c r="DX10" s="43">
+        <v>15610.540912443592</v>
+      </c>
+      <c r="DY10" s="43">
+        <v>15653.226582463582</v>
+      </c>
+      <c r="DZ10" s="43">
+        <v>15686.889158556538</v>
+      </c>
+      <c r="EA10" s="43">
+        <v>15724.164881306309</v>
+      </c>
+      <c r="EB10" s="43">
+        <v>15769.175621032715</v>
+      </c>
+      <c r="EC10" s="43">
+        <v>15807.973010647682</v>
+      </c>
+      <c r="ED10" s="43">
+        <v>15820.150660705567</v>
+      </c>
+      <c r="EE10" s="43">
+        <v>15796.253445040795</v>
+      </c>
+      <c r="EF10" s="43">
+        <v>15761.8157845774</v>
+      </c>
+      <c r="EG10" s="43">
+        <v>15754.240562983921</v>
+      </c>
+      <c r="EH10" s="43">
+        <v>15792.160159203315</v>
+      </c>
+      <c r="EI10" s="43">
+        <v>15852.214138285319</v>
+      </c>
+      <c r="EJ10" s="43">
+        <v>15891.9140676683</v>
+      </c>
+      <c r="EK10" s="43">
+        <v>15885.886297098796</v>
+      </c>
+      <c r="EL10" s="43">
+        <v>15859.220250775737</v>
+      </c>
+      <c r="EM10" s="43">
+        <v>15854.46447827739</v>
+      </c>
+      <c r="EN10" s="43">
+        <v>15899.290046691895</v>
+      </c>
+      <c r="EO10" s="43">
+        <v>15976.761574529832</v>
+      </c>
+      <c r="EP10" s="43">
+        <v>16055.880475616455</v>
+      </c>
+      <c r="EQ10" s="43">
+        <v>16113.695513817573</v>
+      </c>
+      <c r="ER10" s="43">
+        <v>16152.57878112793</v>
+      </c>
+      <c r="ES10" s="43">
+        <v>16180.660441382179</v>
+      </c>
+      <c r="ET10" s="43">
+        <v>16206.709451752324</v>
+      </c>
+      <c r="EU10" s="43">
+        <v>16232.087875556947</v>
+      </c>
+      <c r="EV10" s="43">
+        <v>16255.085456140579</v>
+      </c>
+      <c r="EW10" s="43">
+        <v>16273.959353001912</v>
+      </c>
+      <c r="EX10" s="43">
+        <v>16285.35369165482</v>
+      </c>
+      <c r="EY10" s="43">
+        <v>16285.499890604327</v>
+      </c>
+      <c r="EZ10" s="43">
+        <v>16275.38103205363</v>
+      </c>
+      <c r="FA10" s="43">
+        <v>16270.081598835606</v>
+      </c>
+      <c r="FB10" s="43">
+        <v>16288.708455912272</v>
+      </c>
+      <c r="FC10" s="43">
+        <v>16340.949575608776</v>
+      </c>
+      <c r="FD10" s="43">
+        <v>16406.955227267357</v>
+      </c>
+      <c r="FE10" s="43">
+        <v>16453.362790925163</v>
+      </c>
+      <c r="FF10" s="43">
+        <v>16465.286443402689</v>
+      </c>
+      <c r="FG10" s="43">
+        <v>16457.510667928062</v>
+      </c>
+      <c r="FH10" s="43">
+        <v>16455.820998284125</v>
+      </c>
+      <c r="FI10" s="43">
+        <v>16480.160364786785</v>
+      </c>
+      <c r="FJ10" s="43">
+        <v>16529.083153263215</v>
+      </c>
+      <c r="FK10" s="43">
+        <v>16594.584933742401</v>
+      </c>
+      <c r="FL10" s="43">
+        <v>16662.754844665527</v>
+      </c>
+      <c r="FM10" s="43">
+        <v>16714.686989322785</v>
+      </c>
+      <c r="FN10" s="43">
+        <v>16728.574553934734</v>
+      </c>
+      <c r="FO10" s="43">
+        <v>16695.528603338425</v>
+      </c>
+      <c r="FP10" s="43">
+        <v>16648.178552935202</v>
+      </c>
+      <c r="FQ10" s="43">
+        <v>16633.696240288871</v>
+      </c>
+      <c r="FR10" s="43">
+        <v>16678.877418271957</v>
+      </c>
+      <c r="FS10" s="43">
+        <v>16769.663939412436</v>
+      </c>
+      <c r="FT10" s="43">
+        <v>16872.93472410402</v>
+      </c>
+      <c r="FU10" s="43">
+        <v>16961.567478036879</v>
+      </c>
+      <c r="FV10" s="43">
+        <v>17027.967503370779</v>
+      </c>
+      <c r="FW10" s="43">
+        <v>17071.977077607185</v>
+      </c>
+      <c r="FX10" s="43">
+        <v>17094.879666392007</v>
+      </c>
+      <c r="FY10" s="43">
+        <v>17110.446641983526</v>
+      </c>
+      <c r="FZ10" s="43">
+        <v>17134.790171051027</v>
+      </c>
+      <c r="GA10" s="43">
+        <v>17178.260287869361</v>
+      </c>
+      <c r="GB10" s="43">
+        <v>17233.856520622008</v>
+      </c>
+      <c r="GC10" s="43">
+        <v>17284.602871520179</v>
+      </c>
+      <c r="GD10" s="43">
+        <v>17323.864434149957</v>
+      </c>
+      <c r="GE10" s="43">
+        <v>17354.646685536703</v>
+      </c>
+      <c r="GF10" s="43">
+        <v>17381.096840581587</v>
+      </c>
+      <c r="GG10" s="43">
+        <v>17406.874078687033</v>
+      </c>
+      <c r="GH10" s="43">
+        <v>17428.628905880836</v>
+      </c>
+      <c r="GI10" s="43">
+        <v>17440.934435690604</v>
+      </c>
+      <c r="GJ10" s="43">
+        <v>17441.829879252116</v>
+      </c>
+      <c r="GK10" s="43">
+        <v>17441.978000271705</v>
+      </c>
+      <c r="GL10" s="43">
+        <v>17455.408952331542</v>
+      </c>
+      <c r="GM10" s="43">
+        <v>17490.118754725303</v>
+      </c>
+      <c r="GN10" s="43">
+        <v>17535.365254063759</v>
+      </c>
+      <c r="GO10" s="43">
+        <v>17571.687810832056</v>
+      </c>
+      <c r="GP10" s="43">
+        <v>17589.743405495919</v>
+      </c>
+      <c r="GQ10" s="43">
+        <v>17598.579914093018</v>
+      </c>
+      <c r="GR10" s="43">
+        <v>17613.25474074579</v>
+      </c>
+      <c r="GS10" s="43">
+        <v>17644.085887654623</v>
+      </c>
+      <c r="GT10" s="43">
+        <v>17685.667020613146</v>
+      </c>
+      <c r="GU10" s="43">
+        <v>17727.767707886236</v>
+      </c>
+      <c r="GV10" s="43">
+        <v>17761.217047754923</v>
+      </c>
+      <c r="GW10" s="43">
+        <v>17787.981500933249</v>
+      </c>
+      <c r="GX10" s="43">
+        <v>17812.302801179885</v>
+      </c>
+      <c r="GY10" s="43">
+        <v>17837.387401688484</v>
+      </c>
+      <c r="GZ10" s="43">
+        <v>17863.825770639603</v>
+      </c>
+      <c r="HA10" s="43">
+        <v>17889.082233190536</v>
+      </c>
+      <c r="HB10" s="43">
+        <v>17914.372857186103</v>
+      </c>
+      <c r="HC10" s="43">
+        <v>17942.79416408539</v>
+      </c>
+      <c r="HD10" s="43">
+        <v>17976.646961581322</v>
+      </c>
+      <c r="HE10" s="43">
+        <v>18018.298575496672</v>
+      </c>
+      <c r="HF10" s="43">
+        <v>18068.191233311929</v>
+      </c>
+      <c r="HG10" s="43">
+        <v>18126.917341970628</v>
+      </c>
+      <c r="HH10" s="43">
+        <v>18190.902738316854</v>
+      </c>
+      <c r="HI10" s="43">
+        <v>18255.478787699052</v>
+      </c>
+      <c r="HJ10" s="43">
+        <v>18313.90898472468</v>
+      </c>
+      <c r="HK10" s="43">
+        <v>18361.628646358367</v>
+      </c>
+      <c r="HL10" s="43">
+        <v>18401.815487523232</v>
+      </c>
+      <c r="HM10" s="43">
+        <v>18436.792501074928</v>
+      </c>
+      <c r="HN10" s="43">
+        <v>18472.740641009423</v>
+      </c>
+      <c r="HO10" s="43">
+        <v>18514.244547208149</v>
+      </c>
+      <c r="HP10" s="43">
+        <v>18563.320644624771</v>
+      </c>
+      <c r="HQ10" s="43">
+        <v>18619.605019632974</v>
+      </c>
+      <c r="HR10" s="43">
+        <v>18672.475152538667</v>
+      </c>
+      <c r="HS10" s="43">
+        <v>18708.374188700029</v>
+      </c>
+      <c r="HT10" s="43">
+        <v>18719.016213734943</v>
+      </c>
+      <c r="HU10" s="43">
+        <v>18718.440288174537</v>
+      </c>
+      <c r="HV10" s="43">
+        <v>18726.461617024739</v>
+      </c>
+      <c r="HW10" s="43">
+        <v>18756.086273685578</v>
+      </c>
+      <c r="HX10" s="43">
+        <v>18799.498343683059</v>
+      </c>
+      <c r="HY10" s="43">
+        <v>18838.866869109017</v>
+      </c>
+      <c r="HZ10" s="43">
+        <v>18868.202224977555</v>
+      </c>
+      <c r="IA10" s="43">
+        <v>18900.230247497559</v>
+      </c>
+      <c r="IB10" s="43">
+        <v>18953.011336295836</v>
+      </c>
+      <c r="IC10" s="43">
+        <v>19033.588871765136</v>
+      </c>
+      <c r="ID10" s="43">
+        <v>19112.955640239099</v>
+      </c>
+      <c r="IE10" s="43">
+        <v>19150.404754638672</v>
+      </c>
+      <c r="IF10" s="43">
+        <v>19129.385721842449</v>
+      </c>
+      <c r="IG10" s="43">
+        <v>19111.778515231224</v>
+      </c>
+      <c r="IH10" s="43">
+        <v>19181.231325276694</v>
+      </c>
+      <c r="II10" s="43">
+        <v>19352.951553836945</v>
+      </c>
+      <c r="IJ10" s="43">
+        <v>19427.622861800653</v>
+      </c>
+      <c r="IK10" s="43">
+        <v>19146.539491850755</v>
+      </c>
+      <c r="IL10" s="43">
+        <v>18405.575943485383</v>
+      </c>
+      <c r="IM10" s="43">
+        <v>17554.788492838543</v>
+      </c>
+      <c r="IN10" s="43">
+        <v>17132.973995085686</v>
+      </c>
+      <c r="IO10" s="43">
+        <v>17456.564835611978</v>
+      </c>
+      <c r="IP10" s="43">
+        <v>18218.340883316534</v>
+      </c>
+      <c r="IQ10" s="43">
+        <v>18901.783951297883</v>
+      </c>
+      <c r="IR10" s="43">
+        <v>19123.27901204427</v>
+      </c>
+      <c r="IS10" s="43">
+        <v>19018.879776493195</v>
+      </c>
+      <c r="IT10" s="43">
+        <v>18869.782408650717</v>
+      </c>
+      <c r="IU10" s="43">
+        <v>18882.366415700606</v>
+      </c>
+      <c r="IV10" s="43">
+        <v>19037.262427545364</v>
+      </c>
+      <c r="IW10" s="43">
+        <v>19227.021787170852</v>
+      </c>
+      <c r="IX10" s="43">
+        <v>19385.432734827842</v>
+      </c>
+      <c r="IY10" s="43">
+        <v>19498.372698684532</v>
+      </c>
+      <c r="IZ10" s="43">
+        <v>19558.354187011719</v>
+      </c>
+      <c r="JA10" s="43">
+        <v>19575.546909586588</v>
+      </c>
+      <c r="JB10" s="43">
+        <v>19589.315161920364</v>
+      </c>
+      <c r="JC10" s="43">
+        <v>19650.415106988723</v>
+      </c>
+      <c r="JD10" s="43">
+        <v>19781.567000325522</v>
+      </c>
+      <c r="JE10" s="43">
+        <v>19934.835938484437</v>
+      </c>
+      <c r="JF10" s="43">
+        <v>20038.792842610677</v>
+      </c>
+      <c r="JG10" s="43">
+        <v>20045.96620522776</v>
+      </c>
+      <c r="JH10" s="43">
+        <v>19985.115887057396</v>
+      </c>
+      <c r="JI10" s="43">
+        <v>19914.496301446641</v>
+      </c>
+      <c r="JJ10" s="43">
+        <v>19871.723571715815</v>
+      </c>
+      <c r="JK10" s="43">
+        <v>19863.026245816549</v>
+      </c>
+      <c r="JL10" s="43">
+        <v>19886.814437989266</v>
+      </c>
+      <c r="JM10" s="43">
+        <v>19936.254201507567</v>
+      </c>
+      <c r="JN10" s="43">
+        <v>19998.635039544875</v>
+      </c>
+      <c r="JO10" s="43">
+        <v>20059.780775931573</v>
+      </c>
+      <c r="JP10" s="43">
+        <v>20107.270191574098</v>
+      </c>
+      <c r="JQ10" s="43">
+        <v>20145.297345069146</v>
+      </c>
+      <c r="JR10" s="43">
+        <v>20181.456298637389</v>
+      </c>
+      <c r="JS10" s="43">
+        <v>20220.6859781819</v>
+      </c>
+      <c r="JT10" s="43">
+        <v>20260.513247705276</v>
+      </c>
+      <c r="JU10" s="43">
+        <v>20293.04885012763</v>
+      </c>
+      <c r="JV10" s="43">
+        <v>20316.382700089485</v>
       </c>
       <c r="JW10" s="43" t="s">
         <v>33</v>
@@ -11197,842 +11180,842 @@
       <c r="B11" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="T11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="U11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="V11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="W11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AR11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AT11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AU11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AV11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AX11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AY11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AZ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BA11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BB11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BC11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BE11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BF11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BG11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BH11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BI11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BJ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BK11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BM11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BN11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BO11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BP11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BQ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BR11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BS11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BT11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BU11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BV11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BW11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BX11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BY11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BZ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CA11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CB11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CC11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CD11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CE11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CF11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CG11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CH11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CI11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CJ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CK11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CL11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CM11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CN11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CO11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CP11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CQ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CR11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CS11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CT11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CU11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CV11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CW11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CX11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CY11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CZ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DA11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DB11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DC11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DD11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DE11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DF11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DG11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DH11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DI11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DJ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DK11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DL11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DM11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DN11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DO11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DP11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DQ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DR11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DS11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DT11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DU11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DV11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DW11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DX11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DY11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DZ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EA11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EB11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EC11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="ED11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EE11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EF11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EG11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EH11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EI11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EJ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EK11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EL11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EM11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EN11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EO11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EP11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EQ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="ER11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="ES11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="ET11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EU11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EV11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EW11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EX11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EY11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EZ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FA11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FB11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FC11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FD11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FE11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FF11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FG11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FH11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FI11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FJ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FK11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FL11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FM11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FN11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FO11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FP11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FQ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FR11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FS11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FT11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FU11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FV11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FW11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FX11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FY11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FZ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GA11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GB11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GC11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GD11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GE11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GF11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GG11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GH11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GI11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GJ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GK11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GL11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GM11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GN11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GO11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GP11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GQ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GR11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GS11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GT11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GU11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GV11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GW11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GX11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GY11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GZ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HA11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HB11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HC11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HD11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HE11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HF11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HG11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HH11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HI11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HJ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HK11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HL11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HM11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HN11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HO11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HP11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HQ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HR11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HS11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HT11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HU11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HV11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HW11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HX11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HY11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HZ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IA11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IB11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IC11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="ID11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IE11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IF11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IG11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IH11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="II11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IJ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IK11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IL11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IM11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IN11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IO11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IP11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IQ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IR11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IS11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IT11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IU11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IV11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IW11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IX11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IY11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IZ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JA11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JB11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JC11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JD11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JE11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JF11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JG11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JH11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JI11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JJ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JK11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JL11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JM11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JN11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JO11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JP11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JQ11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JR11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JS11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JT11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JU11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JV11" s="43" t="s">
-        <v>33</v>
+      <c r="D11" s="43">
+        <v>169.3</v>
+      </c>
+      <c r="E11" s="43">
+        <v>170</v>
+      </c>
+      <c r="F11" s="43">
+        <v>171</v>
+      </c>
+      <c r="G11" s="43">
+        <v>170.9</v>
+      </c>
+      <c r="H11" s="43">
+        <v>171.2</v>
+      </c>
+      <c r="I11" s="43">
+        <v>172.2</v>
+      </c>
+      <c r="J11" s="43">
+        <v>172.7</v>
+      </c>
+      <c r="K11" s="43">
+        <v>172.7</v>
+      </c>
+      <c r="L11" s="43">
+        <v>173.6</v>
+      </c>
+      <c r="M11" s="43">
+        <v>173.9</v>
+      </c>
+      <c r="N11" s="43">
+        <v>174.2</v>
+      </c>
+      <c r="O11" s="43">
+        <v>174.6</v>
+      </c>
+      <c r="P11" s="43">
+        <v>175.6</v>
+      </c>
+      <c r="Q11" s="43">
+        <v>176</v>
+      </c>
+      <c r="R11" s="43">
+        <v>176.1</v>
+      </c>
+      <c r="S11" s="43">
+        <v>176.4</v>
+      </c>
+      <c r="T11" s="43">
+        <v>177.3</v>
+      </c>
+      <c r="U11" s="43">
+        <v>177.7</v>
+      </c>
+      <c r="V11" s="43">
+        <v>177.4</v>
+      </c>
+      <c r="W11" s="43">
+        <v>177.4</v>
+      </c>
+      <c r="X11" s="43">
+        <v>178.1</v>
+      </c>
+      <c r="Y11" s="43">
+        <v>177.6</v>
+      </c>
+      <c r="Z11" s="43">
+        <v>177.5</v>
+      </c>
+      <c r="AA11" s="43">
+        <v>177.4</v>
+      </c>
+      <c r="AB11" s="43">
+        <v>177.7</v>
+      </c>
+      <c r="AC11" s="43">
+        <v>178</v>
+      </c>
+      <c r="AD11" s="43">
+        <v>178.5</v>
+      </c>
+      <c r="AE11" s="43">
+        <v>179.3</v>
+      </c>
+      <c r="AF11" s="43">
+        <v>179.5</v>
+      </c>
+      <c r="AG11" s="43">
+        <v>179.6</v>
+      </c>
+      <c r="AH11" s="43">
+        <v>180</v>
+      </c>
+      <c r="AI11" s="43">
+        <v>180.5</v>
+      </c>
+      <c r="AJ11" s="43">
+        <v>180.8</v>
+      </c>
+      <c r="AK11" s="43">
+        <v>181.2</v>
+      </c>
+      <c r="AL11" s="43">
+        <v>181.5</v>
+      </c>
+      <c r="AM11" s="43">
+        <v>181.8</v>
+      </c>
+      <c r="AN11" s="43">
+        <v>182.6</v>
+      </c>
+      <c r="AO11" s="43">
+        <v>183.6</v>
+      </c>
+      <c r="AP11" s="43">
+        <v>183.9</v>
+      </c>
+      <c r="AQ11" s="43">
+        <v>183.2</v>
+      </c>
+      <c r="AR11" s="43">
+        <v>182.9</v>
+      </c>
+      <c r="AS11" s="43">
+        <v>183.1</v>
+      </c>
+      <c r="AT11" s="43">
+        <v>183.7</v>
+      </c>
+      <c r="AU11" s="43">
+        <v>184.5</v>
+      </c>
+      <c r="AV11" s="43">
+        <v>185.1</v>
+      </c>
+      <c r="AW11" s="43">
+        <v>184.9</v>
+      </c>
+      <c r="AX11" s="43">
+        <v>185</v>
+      </c>
+      <c r="AY11" s="43">
+        <v>185.5</v>
+      </c>
+      <c r="AZ11" s="43">
+        <v>186.3</v>
+      </c>
+      <c r="BA11" s="43">
+        <v>186.7</v>
+      </c>
+      <c r="BB11" s="43">
+        <v>187.1</v>
+      </c>
+      <c r="BC11" s="43">
+        <v>187.4</v>
+      </c>
+      <c r="BD11" s="43">
+        <v>188.2</v>
+      </c>
+      <c r="BE11" s="43">
+        <v>188.9</v>
+      </c>
+      <c r="BF11" s="43">
+        <v>189.1</v>
+      </c>
+      <c r="BG11" s="43">
+        <v>189.2</v>
+      </c>
+      <c r="BH11" s="43">
+        <v>189.8</v>
+      </c>
+      <c r="BI11" s="43">
+        <v>190.8</v>
+      </c>
+      <c r="BJ11" s="43">
+        <v>191.7</v>
+      </c>
+      <c r="BK11" s="43">
+        <v>191.7</v>
+      </c>
+      <c r="BL11" s="43">
+        <v>191.6</v>
+      </c>
+      <c r="BM11" s="43">
+        <v>192.4</v>
+      </c>
+      <c r="BN11" s="43">
+        <v>193.1</v>
+      </c>
+      <c r="BO11" s="43">
+        <v>193.7</v>
+      </c>
+      <c r="BP11" s="43">
+        <v>193.6</v>
+      </c>
+      <c r="BQ11" s="43">
+        <v>193.7</v>
+      </c>
+      <c r="BR11" s="43">
+        <v>194.9</v>
+      </c>
+      <c r="BS11" s="43">
+        <v>196.1</v>
+      </c>
+      <c r="BT11" s="43">
+        <v>198.8</v>
+      </c>
+      <c r="BU11" s="43">
+        <v>199.1</v>
+      </c>
+      <c r="BV11" s="43">
+        <v>198.1</v>
+      </c>
+      <c r="BW11" s="43">
+        <v>198.1</v>
+      </c>
+      <c r="BX11" s="43">
+        <v>199.3</v>
+      </c>
+      <c r="BY11" s="43">
+        <v>199.4</v>
+      </c>
+      <c r="BZ11" s="43">
+        <v>199.7</v>
+      </c>
+      <c r="CA11" s="43">
+        <v>200.7</v>
+      </c>
+      <c r="CB11" s="43">
+        <v>201.3</v>
+      </c>
+      <c r="CC11" s="43">
+        <v>201.8</v>
+      </c>
+      <c r="CD11" s="43">
+        <v>202.9</v>
+      </c>
+      <c r="CE11" s="43">
+        <v>203.8</v>
+      </c>
+      <c r="CF11" s="43">
+        <v>202.8</v>
+      </c>
+      <c r="CG11" s="43">
+        <v>201.9</v>
+      </c>
+      <c r="CH11" s="43">
+        <v>202</v>
+      </c>
+      <c r="CI11" s="43">
+        <v>203.1</v>
+      </c>
+      <c r="CJ11" s="43">
+        <v>203.43700000000001</v>
+      </c>
+      <c r="CK11" s="43">
+        <v>204.226</v>
+      </c>
+      <c r="CL11" s="43">
+        <v>205.28800000000001</v>
+      </c>
+      <c r="CM11" s="43">
+        <v>205.904</v>
+      </c>
+      <c r="CN11" s="43">
+        <v>206.755</v>
+      </c>
+      <c r="CO11" s="43">
+        <v>207.23400000000001</v>
+      </c>
+      <c r="CP11" s="43">
+        <v>207.60300000000001</v>
+      </c>
+      <c r="CQ11" s="43">
+        <v>207.667</v>
+      </c>
+      <c r="CR11" s="43">
+        <v>208.547</v>
+      </c>
+      <c r="CS11" s="43">
+        <v>209.19</v>
+      </c>
+      <c r="CT11" s="43">
+        <v>210.834</v>
+      </c>
+      <c r="CU11" s="43">
+        <v>211.44499999999999</v>
+      </c>
+      <c r="CV11" s="43">
+        <v>212.17400000000001</v>
+      </c>
+      <c r="CW11" s="43">
+        <v>212.68700000000001</v>
+      </c>
+      <c r="CX11" s="43">
+        <v>213.44800000000001</v>
+      </c>
+      <c r="CY11" s="43">
+        <v>213.94200000000001</v>
+      </c>
+      <c r="CZ11" s="43">
+        <v>215.208</v>
+      </c>
+      <c r="DA11" s="43">
+        <v>217.46299999999999</v>
+      </c>
+      <c r="DB11" s="43">
+        <v>219.01599999999999</v>
+      </c>
+      <c r="DC11" s="43">
+        <v>218.69</v>
+      </c>
+      <c r="DD11" s="43">
+        <v>218.87700000000001</v>
+      </c>
+      <c r="DE11" s="43">
+        <v>216.995</v>
+      </c>
+      <c r="DF11" s="43">
+        <v>213.15299999999999</v>
+      </c>
+      <c r="DG11" s="43">
+        <v>211.398</v>
+      </c>
+      <c r="DH11" s="43">
+        <v>211.93299999999999</v>
+      </c>
+      <c r="DI11" s="43">
+        <v>212.70500000000001</v>
+      </c>
+      <c r="DJ11" s="43">
+        <v>212.495</v>
+      </c>
+      <c r="DK11" s="43">
+        <v>212.709</v>
+      </c>
+      <c r="DL11" s="43">
+        <v>213.02199999999999</v>
+      </c>
+      <c r="DM11" s="43">
+        <v>214.79</v>
+      </c>
+      <c r="DN11" s="43">
+        <v>214.726</v>
+      </c>
+      <c r="DO11" s="43">
+        <v>215.44499999999999</v>
+      </c>
+      <c r="DP11" s="43">
+        <v>215.86099999999999</v>
+      </c>
+      <c r="DQ11" s="43">
+        <v>216.50899999999999</v>
+      </c>
+      <c r="DR11" s="43">
+        <v>217.23400000000001</v>
+      </c>
+      <c r="DS11" s="43">
+        <v>217.34700000000001</v>
+      </c>
+      <c r="DT11" s="43">
+        <v>217.488</v>
+      </c>
+      <c r="DU11" s="43">
+        <v>217.28100000000001</v>
+      </c>
+      <c r="DV11" s="43">
+        <v>217.35300000000001</v>
+      </c>
+      <c r="DW11" s="43">
+        <v>217.40299999999999</v>
+      </c>
+      <c r="DX11" s="43">
+        <v>217.29</v>
+      </c>
+      <c r="DY11" s="43">
+        <v>217.19900000000001</v>
+      </c>
+      <c r="DZ11" s="43">
+        <v>217.60499999999999</v>
+      </c>
+      <c r="EA11" s="43">
+        <v>217.923</v>
+      </c>
+      <c r="EB11" s="43">
+        <v>218.27500000000001</v>
+      </c>
+      <c r="EC11" s="43">
+        <v>219.035</v>
+      </c>
+      <c r="ED11" s="43">
+        <v>219.59</v>
+      </c>
+      <c r="EE11" s="43">
+        <v>220.47200000000001</v>
+      </c>
+      <c r="EF11" s="43">
+        <v>221.18700000000001</v>
+      </c>
+      <c r="EG11" s="43">
+        <v>221.898</v>
+      </c>
+      <c r="EH11" s="43">
+        <v>223.04599999999999</v>
+      </c>
+      <c r="EI11" s="43">
+        <v>224.09299999999999</v>
+      </c>
+      <c r="EJ11" s="43">
+        <v>224.80600000000001</v>
+      </c>
+      <c r="EK11" s="43">
+        <v>224.80600000000001</v>
+      </c>
+      <c r="EL11" s="43">
+        <v>225.39500000000001</v>
+      </c>
+      <c r="EM11" s="43">
+        <v>226.10599999999999</v>
+      </c>
+      <c r="EN11" s="43">
+        <v>226.59700000000001</v>
+      </c>
+      <c r="EO11" s="43">
+        <v>226.75</v>
+      </c>
+      <c r="EP11" s="43">
+        <v>227.16900000000001</v>
+      </c>
+      <c r="EQ11" s="43">
+        <v>227.22300000000001</v>
+      </c>
+      <c r="ER11" s="43">
+        <v>227.84200000000001</v>
+      </c>
+      <c r="ES11" s="43">
+        <v>228.32900000000001</v>
+      </c>
+      <c r="ET11" s="43">
+        <v>228.80699999999999</v>
+      </c>
+      <c r="EU11" s="43">
+        <v>229.18700000000001</v>
+      </c>
+      <c r="EV11" s="43">
+        <v>228.71299999999999</v>
+      </c>
+      <c r="EW11" s="43">
+        <v>228.524</v>
+      </c>
+      <c r="EX11" s="43">
+        <v>228.59</v>
+      </c>
+      <c r="EY11" s="43">
+        <v>229.91800000000001</v>
+      </c>
+      <c r="EZ11" s="43">
+        <v>231.01499999999999</v>
+      </c>
+      <c r="FA11" s="43">
+        <v>231.63800000000001</v>
+      </c>
+      <c r="FB11" s="43">
+        <v>231.249</v>
+      </c>
+      <c r="FC11" s="43">
+        <v>231.221</v>
+      </c>
+      <c r="FD11" s="43">
+        <v>231.679</v>
+      </c>
+      <c r="FE11" s="43">
+        <v>232.93700000000001</v>
+      </c>
+      <c r="FF11" s="43">
+        <v>232.28200000000001</v>
+      </c>
+      <c r="FG11" s="43">
+        <v>231.797</v>
+      </c>
+      <c r="FH11" s="43">
+        <v>231.893</v>
+      </c>
+      <c r="FI11" s="43">
+        <v>232.44499999999999</v>
+      </c>
+      <c r="FJ11" s="43">
+        <v>232.9</v>
+      </c>
+      <c r="FK11" s="43">
+        <v>233.45599999999999</v>
+      </c>
+      <c r="FL11" s="43">
+        <v>233.54400000000001</v>
+      </c>
+      <c r="FM11" s="43">
+        <v>233.66900000000001</v>
+      </c>
+      <c r="FN11" s="43">
+        <v>234.1</v>
+      </c>
+      <c r="FO11" s="43">
+        <v>234.71899999999999</v>
+      </c>
+      <c r="FP11" s="43">
+        <v>235.28800000000001</v>
+      </c>
+      <c r="FQ11" s="43">
+        <v>235.547</v>
+      </c>
+      <c r="FR11" s="43">
+        <v>236.02799999999999</v>
+      </c>
+      <c r="FS11" s="43">
+        <v>236.46799999999999</v>
+      </c>
+      <c r="FT11" s="43">
+        <v>236.91800000000001</v>
+      </c>
+      <c r="FU11" s="43">
+        <v>237.23099999999999</v>
+      </c>
+      <c r="FV11" s="43">
+        <v>237.49799999999999</v>
+      </c>
+      <c r="FW11" s="43">
+        <v>237.46</v>
+      </c>
+      <c r="FX11" s="43">
+        <v>237.477</v>
+      </c>
+      <c r="FY11" s="43">
+        <v>237.43</v>
+      </c>
+      <c r="FZ11" s="43">
+        <v>236.983</v>
+      </c>
+      <c r="GA11" s="43">
+        <v>236.25200000000001</v>
+      </c>
+      <c r="GB11" s="43">
+        <v>234.74700000000001</v>
+      </c>
+      <c r="GC11" s="43">
+        <v>235.34200000000001</v>
+      </c>
+      <c r="GD11" s="43">
+        <v>235.976</v>
+      </c>
+      <c r="GE11" s="43">
+        <v>236.22200000000001</v>
+      </c>
+      <c r="GF11" s="43">
+        <v>237.001</v>
+      </c>
+      <c r="GG11" s="43">
+        <v>237.65700000000001</v>
+      </c>
+      <c r="GH11" s="43">
+        <v>238.03399999999999</v>
+      </c>
+      <c r="GI11" s="43">
+        <v>238.03299999999999</v>
+      </c>
+      <c r="GJ11" s="43">
+        <v>237.49799999999999</v>
+      </c>
+      <c r="GK11" s="43">
+        <v>237.733</v>
+      </c>
+      <c r="GL11" s="43">
+        <v>238.017</v>
+      </c>
+      <c r="GM11" s="43">
+        <v>237.761</v>
+      </c>
+      <c r="GN11" s="43">
+        <v>237.65199999999999</v>
+      </c>
+      <c r="GO11" s="43">
+        <v>237.33600000000001</v>
+      </c>
+      <c r="GP11" s="43">
+        <v>238.08</v>
+      </c>
+      <c r="GQ11" s="43">
+        <v>238.99199999999999</v>
+      </c>
+      <c r="GR11" s="43">
+        <v>239.55699999999999</v>
+      </c>
+      <c r="GS11" s="43">
+        <v>240.22200000000001</v>
+      </c>
+      <c r="GT11" s="43">
+        <v>240.101</v>
+      </c>
+      <c r="GU11" s="43">
+        <v>240.54499999999999</v>
+      </c>
+      <c r="GV11" s="43">
+        <v>241.17599999999999</v>
+      </c>
+      <c r="GW11" s="43">
+        <v>241.74100000000001</v>
+      </c>
+      <c r="GX11" s="43">
+        <v>242.02600000000001</v>
+      </c>
+      <c r="GY11" s="43">
+        <v>242.637</v>
+      </c>
+      <c r="GZ11" s="43">
+        <v>243.61799999999999</v>
+      </c>
+      <c r="HA11" s="43">
+        <v>244.006</v>
+      </c>
+      <c r="HB11" s="43">
+        <v>243.892</v>
+      </c>
+      <c r="HC11" s="43">
+        <v>244.19300000000001</v>
+      </c>
+      <c r="HD11" s="43">
+        <v>244.00399999999999</v>
+      </c>
+      <c r="HE11" s="43">
+        <v>244.16300000000001</v>
+      </c>
+      <c r="HF11" s="43">
+        <v>244.24299999999999</v>
+      </c>
+      <c r="HG11" s="43">
+        <v>245.18299999999999</v>
+      </c>
+      <c r="HH11" s="43">
+        <v>246.435</v>
+      </c>
+      <c r="HI11" s="43">
+        <v>246.626</v>
+      </c>
+      <c r="HJ11" s="43">
+        <v>247.28399999999999</v>
+      </c>
+      <c r="HK11" s="43">
+        <v>247.80500000000001</v>
+      </c>
+      <c r="HL11" s="43">
+        <v>248.85900000000001</v>
+      </c>
+      <c r="HM11" s="43">
+        <v>249.529</v>
+      </c>
+      <c r="HN11" s="43">
+        <v>249.577</v>
+      </c>
+      <c r="HO11" s="43">
+        <v>250.227</v>
+      </c>
+      <c r="HP11" s="43">
+        <v>250.792</v>
+      </c>
+      <c r="HQ11" s="43">
+        <v>251.018</v>
+      </c>
+      <c r="HR11" s="43">
+        <v>251.214</v>
+      </c>
+      <c r="HS11" s="43">
+        <v>251.66300000000001</v>
+      </c>
+      <c r="HT11" s="43">
+        <v>252.18199999999999</v>
+      </c>
+      <c r="HU11" s="43">
+        <v>252.77199999999999</v>
+      </c>
+      <c r="HV11" s="43">
+        <v>252.59399999999999</v>
+      </c>
+      <c r="HW11" s="43">
+        <v>252.767</v>
+      </c>
+      <c r="HX11" s="43">
+        <v>252.71799999999999</v>
+      </c>
+      <c r="HY11" s="43">
+        <v>253.322</v>
+      </c>
+      <c r="HZ11" s="43">
+        <v>254.202</v>
+      </c>
+      <c r="IA11" s="43">
+        <v>255.21100000000001</v>
+      </c>
+      <c r="IB11" s="43">
+        <v>255.29</v>
+      </c>
+      <c r="IC11" s="43">
+        <v>255.15899999999999</v>
+      </c>
+      <c r="ID11" s="43">
+        <v>255.685</v>
+      </c>
+      <c r="IE11" s="43">
+        <v>256.05900000000003</v>
+      </c>
+      <c r="IF11" s="43">
+        <v>256.51100000000002</v>
+      </c>
+      <c r="IG11" s="43">
+        <v>257.24400000000003</v>
+      </c>
+      <c r="IH11" s="43">
+        <v>257.803</v>
+      </c>
+      <c r="II11" s="43">
+        <v>258.61599999999999</v>
+      </c>
+      <c r="IJ11" s="43">
+        <v>259.03699999999998</v>
+      </c>
+      <c r="IK11" s="43">
+        <v>259.24799999999999</v>
+      </c>
+      <c r="IL11" s="43">
+        <v>258.12400000000002</v>
+      </c>
+      <c r="IM11" s="43">
+        <v>256.09199999999998</v>
+      </c>
+      <c r="IN11" s="43">
+        <v>255.86799999999999</v>
+      </c>
+      <c r="IO11" s="43">
+        <v>256.98599999999999</v>
+      </c>
+      <c r="IP11" s="43">
+        <v>258.27800000000002</v>
+      </c>
+      <c r="IQ11" s="43">
+        <v>259.411</v>
+      </c>
+      <c r="IR11" s="43">
+        <v>260.029</v>
+      </c>
+      <c r="IS11" s="43">
+        <v>260.286</v>
+      </c>
+      <c r="IT11" s="43">
+        <v>260.81299999999999</v>
+      </c>
+      <c r="IU11" s="43">
+        <v>262.03500000000003</v>
+      </c>
+      <c r="IV11" s="43">
+        <v>262.64999999999998</v>
+      </c>
+      <c r="IW11" s="43">
+        <v>263.63799999999998</v>
+      </c>
+      <c r="IX11" s="43">
+        <v>264.91399999999999</v>
+      </c>
+      <c r="IY11" s="43">
+        <v>266.67</v>
+      </c>
+      <c r="IZ11" s="43">
+        <v>268.44400000000002</v>
+      </c>
+      <c r="JA11" s="43">
+        <v>270.55900000000003</v>
+      </c>
+      <c r="JB11" s="43">
+        <v>271.76400000000001</v>
+      </c>
+      <c r="JC11" s="43">
+        <v>272.87</v>
+      </c>
+      <c r="JD11" s="43">
+        <v>274.02800000000002</v>
+      </c>
+      <c r="JE11" s="43">
+        <v>276.52199999999999</v>
+      </c>
+      <c r="JF11" s="43">
+        <v>278.71100000000001</v>
+      </c>
+      <c r="JG11" s="43">
+        <v>280.887</v>
+      </c>
+      <c r="JH11" s="43">
+        <v>282.59899999999999</v>
+      </c>
+      <c r="JI11" s="43">
+        <v>284.61</v>
+      </c>
+      <c r="JJ11" s="43">
+        <v>287.47199999999998</v>
+      </c>
+      <c r="JK11" s="43">
+        <v>288.61099999999999</v>
+      </c>
+      <c r="JL11" s="43">
+        <v>291.26799999999997</v>
+      </c>
+      <c r="JM11" s="43">
+        <v>294.72800000000001</v>
+      </c>
+      <c r="JN11" s="43">
+        <v>294.62799999999999</v>
+      </c>
+      <c r="JO11" s="43">
+        <v>295.32</v>
+      </c>
+      <c r="JP11" s="43">
+        <v>296.53899999999999</v>
+      </c>
+      <c r="JQ11" s="43">
+        <v>297.98700000000002</v>
+      </c>
+      <c r="JR11" s="43">
+        <v>298.59800000000001</v>
+      </c>
+      <c r="JS11" s="43">
+        <v>298.99</v>
+      </c>
+      <c r="JT11" s="43">
+        <v>300.536</v>
+      </c>
+      <c r="JU11" s="43">
+        <v>301.64800000000002</v>
+      </c>
+      <c r="JV11" s="43">
+        <v>301.80799999999999</v>
       </c>
       <c r="JW11" s="43" t="s">
         <v>33</v>
@@ -12165,845 +12148,845 @@
       <c r="B12" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="P12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="T12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="U12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="V12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="W12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="X12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AR12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AT12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AU12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AV12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AX12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AY12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AZ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BA12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BB12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BC12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BE12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BF12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BG12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BH12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BI12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BJ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BK12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BM12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BN12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BO12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BP12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BQ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BR12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BS12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BT12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BU12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BV12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BW12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BX12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BY12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="BZ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CA12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CB12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CC12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CD12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CE12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CF12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CG12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CH12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CI12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CJ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CK12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CL12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CM12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CN12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CO12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CP12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CQ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CR12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CS12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CT12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CU12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CV12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CW12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CX12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CY12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="CZ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DA12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DB12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DC12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DD12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DE12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DF12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DG12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DH12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DI12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DJ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DK12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DL12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DM12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DN12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DO12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DP12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DQ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DR12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DS12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DT12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DU12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DV12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DW12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DX12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DY12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="DZ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EA12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EB12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EC12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="ED12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EE12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EF12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EG12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EH12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EI12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EJ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EK12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EL12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EM12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EN12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EO12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EP12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EQ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="ER12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="ES12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="ET12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EU12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EV12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EW12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EX12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EY12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="EZ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FA12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FB12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FC12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FD12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FE12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FF12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FG12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FH12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FI12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FJ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FK12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FL12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FM12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FN12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FO12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FP12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FQ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FR12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FS12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FT12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FU12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FV12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FW12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FX12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FY12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="FZ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GA12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GB12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GC12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GD12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GE12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GF12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GG12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GH12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GI12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GJ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GK12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GL12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GM12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GN12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GO12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GP12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GQ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GR12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GS12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GT12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GU12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GV12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GW12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GX12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GY12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="GZ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HA12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HB12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HC12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HD12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HE12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HF12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HG12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HH12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HI12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HJ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HK12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HL12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HM12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HN12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HO12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HP12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HQ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HR12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HS12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HT12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HU12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HV12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HW12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HX12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HY12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="HZ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IA12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IB12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IC12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="ID12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IE12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IF12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IG12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IH12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="II12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IJ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IK12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IL12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IM12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IN12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IO12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IP12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IQ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IR12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IS12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IT12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IU12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IV12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IW12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IX12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IY12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="IZ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JA12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JB12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JC12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JD12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JE12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JF12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JG12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JH12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JI12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JJ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JK12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JL12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JM12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JN12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JO12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JP12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JQ12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JR12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JS12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JT12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JU12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JV12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="JW12" s="43" t="s">
-        <v>33</v>
+      <c r="D12" s="43">
+        <v>5.3185000000000002</v>
+      </c>
+      <c r="E12" s="43">
+        <v>5.548</v>
+      </c>
+      <c r="F12" s="43">
+        <v>5.6947826086956521</v>
+      </c>
+      <c r="G12" s="43">
+        <v>5.6584210526315788</v>
+      </c>
+      <c r="H12" s="43">
+        <v>5.790909090909091</v>
+      </c>
+      <c r="I12" s="43">
+        <v>5.6863636363636365</v>
+      </c>
+      <c r="J12" s="43">
+        <v>5.9550000000000001</v>
+      </c>
+      <c r="K12" s="43">
+        <v>6.0943478260869561</v>
+      </c>
+      <c r="L12" s="43">
+        <v>5.9974999999999996</v>
+      </c>
+      <c r="M12" s="43">
+        <v>6.1066666666666665</v>
+      </c>
+      <c r="N12" s="43">
+        <v>6.171904761904762</v>
+      </c>
+      <c r="O12" s="43">
+        <v>5.7690000000000001</v>
+      </c>
+      <c r="P12" s="43">
+        <v>5.1457142857142859</v>
+      </c>
+      <c r="Q12" s="43">
+        <v>4.8815789473684212</v>
+      </c>
+      <c r="R12" s="43">
+        <v>4.4245454545454548</v>
+      </c>
+      <c r="S12" s="43">
+        <v>3.8725000000000001</v>
+      </c>
+      <c r="T12" s="43">
+        <v>3.6204545454545456</v>
+      </c>
+      <c r="U12" s="43">
+        <v>3.485238095238095</v>
+      </c>
+      <c r="V12" s="43">
+        <v>3.5133333333333332</v>
+      </c>
+      <c r="W12" s="43">
+        <v>3.3617391304347826</v>
+      </c>
+      <c r="X12" s="43">
+        <v>2.6364705882352939</v>
+      </c>
+      <c r="Y12" s="43">
+        <v>2.1572727272727272</v>
+      </c>
+      <c r="Z12" s="43">
+        <v>1.871</v>
+      </c>
+      <c r="AA12" s="43">
+        <v>1.69</v>
+      </c>
+      <c r="AB12" s="43">
+        <v>1.6533333333333333</v>
+      </c>
+      <c r="AC12" s="43">
+        <v>1.7247368421052631</v>
+      </c>
+      <c r="AD12" s="43">
+        <v>1.7875000000000001</v>
+      </c>
+      <c r="AE12" s="43">
+        <v>1.7136363636363636</v>
+      </c>
+      <c r="AF12" s="43">
+        <v>1.7272727272727273</v>
+      </c>
+      <c r="AG12" s="43">
+        <v>1.6995</v>
+      </c>
+      <c r="AH12" s="43">
+        <v>1.6831818181818181</v>
+      </c>
+      <c r="AI12" s="43">
+        <v>1.615909090909091</v>
+      </c>
+      <c r="AJ12" s="43">
+        <v>1.629</v>
+      </c>
+      <c r="AK12" s="43">
+        <v>1.5804545454545456</v>
+      </c>
+      <c r="AL12" s="43">
+        <v>1.2347368421052631</v>
+      </c>
+      <c r="AM12" s="43">
+        <v>1.190952380952381</v>
+      </c>
+      <c r="AN12" s="43">
+        <v>1.1690476190476189</v>
+      </c>
+      <c r="AO12" s="43">
+        <v>1.1652631578947368</v>
+      </c>
+      <c r="AP12" s="43">
+        <v>1.1309523809523809</v>
+      </c>
+      <c r="AQ12" s="43">
+        <v>1.1323809523809525</v>
+      </c>
+      <c r="AR12" s="43">
+        <v>1.0680952380952382</v>
+      </c>
+      <c r="AS12" s="43">
+        <v>0.91714285714285715</v>
+      </c>
+      <c r="AT12" s="43">
+        <v>0.90045454545454551</v>
+      </c>
+      <c r="AU12" s="43">
+        <v>0.94904761904761903</v>
+      </c>
+      <c r="AV12" s="43">
+        <v>0.93666666666666665</v>
+      </c>
+      <c r="AW12" s="43">
+        <v>0.92181818181818187</v>
+      </c>
+      <c r="AX12" s="43">
+        <v>0.93222222222222217</v>
+      </c>
+      <c r="AY12" s="43">
+        <v>0.89590909090909088</v>
+      </c>
+      <c r="AZ12" s="43">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="BA12" s="43">
+        <v>0.9257894736842105</v>
+      </c>
+      <c r="BB12" s="43">
+        <v>0.93695652173913047</v>
+      </c>
+      <c r="BC12" s="43">
+        <v>0.94380952380952376</v>
+      </c>
+      <c r="BD12" s="43">
+        <v>1.0235000000000001</v>
+      </c>
+      <c r="BE12" s="43">
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="BF12" s="43">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="BG12" s="43">
+        <v>1.479090909090909</v>
+      </c>
+      <c r="BH12" s="43">
+        <v>1.6528571428571428</v>
+      </c>
+      <c r="BI12" s="43">
+        <v>1.7609999999999999</v>
+      </c>
+      <c r="BJ12" s="43">
+        <v>2.069</v>
+      </c>
+      <c r="BK12" s="43">
+        <v>2.1872727272727275</v>
+      </c>
+      <c r="BL12" s="43">
+        <v>2.3334999999999999</v>
+      </c>
+      <c r="BM12" s="43">
+        <v>2.5389473684210526</v>
+      </c>
+      <c r="BN12" s="43">
+        <v>2.7386363636363638</v>
+      </c>
+      <c r="BO12" s="43">
+        <v>2.7809523809523808</v>
+      </c>
+      <c r="BP12" s="43">
+        <v>2.8414285714285712</v>
+      </c>
+      <c r="BQ12" s="43">
+        <v>2.9727272727272727</v>
+      </c>
+      <c r="BR12" s="43">
+        <v>3.2155</v>
+      </c>
+      <c r="BS12" s="43">
+        <v>3.4408695652173913</v>
+      </c>
+      <c r="BT12" s="43">
+        <v>3.4195238095238096</v>
+      </c>
+      <c r="BU12" s="43">
+        <v>3.706</v>
+      </c>
+      <c r="BV12" s="43">
+        <v>3.8835000000000002</v>
+      </c>
+      <c r="BW12" s="43">
+        <v>3.8861904761904764</v>
+      </c>
+      <c r="BX12" s="43">
+        <v>4.2359999999999998</v>
+      </c>
+      <c r="BY12" s="43">
+        <v>4.4331578947368424</v>
+      </c>
+      <c r="BZ12" s="43">
+        <v>4.5121739130434779</v>
+      </c>
+      <c r="CA12" s="43">
+        <v>4.6036842105263158</v>
+      </c>
+      <c r="CB12" s="43">
+        <v>4.7154545454545458</v>
+      </c>
+      <c r="CC12" s="43">
+        <v>4.791363636363636</v>
+      </c>
+      <c r="CD12" s="43">
+        <v>4.9465000000000003</v>
+      </c>
+      <c r="CE12" s="43">
+        <v>4.9604347826086954</v>
+      </c>
+      <c r="CF12" s="43">
+        <v>4.8055000000000003</v>
+      </c>
+      <c r="CG12" s="43">
+        <v>4.9171428571428573</v>
+      </c>
+      <c r="CH12" s="43">
+        <v>4.9433333333333334</v>
+      </c>
+      <c r="CI12" s="43">
+        <v>4.8475000000000001</v>
+      </c>
+      <c r="CJ12" s="43">
+        <v>4.9752380952380948</v>
+      </c>
+      <c r="CK12" s="43">
+        <v>5.0268421052631576</v>
+      </c>
+      <c r="CL12" s="43">
+        <v>4.9390909090909094</v>
+      </c>
+      <c r="CM12" s="43">
+        <v>4.8690476190476186</v>
+      </c>
+      <c r="CN12" s="43">
+        <v>4.7327272727272724</v>
+      </c>
+      <c r="CO12" s="43">
+        <v>4.6109523809523809</v>
+      </c>
+      <c r="CP12" s="43">
+        <v>4.8214285714285712</v>
+      </c>
+      <c r="CQ12" s="43">
+        <v>4.2017391304347829</v>
+      </c>
+      <c r="CR12" s="43">
+        <v>3.8921052631578945</v>
+      </c>
+      <c r="CS12" s="43">
+        <v>3.8995454545454544</v>
+      </c>
+      <c r="CT12" s="43">
+        <v>3.2730000000000001</v>
+      </c>
+      <c r="CU12" s="43">
+        <v>2.9954999999999998</v>
+      </c>
+      <c r="CV12" s="43">
+        <v>2.7533333333333334</v>
+      </c>
+      <c r="CW12" s="43">
+        <v>2.1244999999999998</v>
+      </c>
+      <c r="CX12" s="43">
+        <v>1.2625</v>
+      </c>
+      <c r="CY12" s="43">
+        <v>1.2936363636363637</v>
+      </c>
+      <c r="CZ12" s="43">
+        <v>1.7338095238095237</v>
+      </c>
+      <c r="DA12" s="43">
+        <v>1.8561904761904762</v>
+      </c>
+      <c r="DB12" s="43">
+        <v>1.625909090909091</v>
+      </c>
+      <c r="DC12" s="43">
+        <v>1.7219047619047618</v>
+      </c>
+      <c r="DD12" s="43">
+        <v>1.1342857142857143</v>
+      </c>
+      <c r="DE12" s="43">
+        <v>0.67454545454545456</v>
+      </c>
+      <c r="DF12" s="43">
+        <v>0.19111111111111112</v>
+      </c>
+      <c r="DG12" s="43">
+        <v>3.4545454545454546E-2</v>
+      </c>
+      <c r="DH12" s="43">
+        <v>0.13</v>
+      </c>
+      <c r="DI12" s="43">
+        <v>0.29578947368421055</v>
+      </c>
+      <c r="DJ12" s="43">
+        <v>0.21363636363636362</v>
+      </c>
+      <c r="DK12" s="43">
+        <v>0.15809523809523809</v>
+      </c>
+      <c r="DL12" s="43">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="DM12" s="43">
+        <v>0.17681818181818182</v>
+      </c>
+      <c r="DN12" s="43">
+        <v>0.18363636363636363</v>
+      </c>
+      <c r="DO12" s="43">
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="DP12" s="43">
+        <v>0.12333333333333334</v>
+      </c>
+      <c r="DQ12" s="43">
+        <v>7.4285714285714288E-2</v>
+      </c>
+      <c r="DR12" s="43">
+        <v>5.2105263157894738E-2</v>
+      </c>
+      <c r="DS12" s="43">
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="DT12" s="43">
+        <v>6.1578947368421053E-2</v>
+      </c>
+      <c r="DU12" s="43">
+        <v>0.10894736842105263</v>
+      </c>
+      <c r="DV12" s="43">
+        <v>0.15043478260869564</v>
+      </c>
+      <c r="DW12" s="43">
+        <v>0.16227272727272726</v>
+      </c>
+      <c r="DX12" s="43">
+        <v>0.16</v>
+      </c>
+      <c r="DY12" s="43">
+        <v>0.12363636363636364</v>
+      </c>
+      <c r="DZ12" s="43">
+        <v>0.15761904761904763</v>
+      </c>
+      <c r="EA12" s="43">
+        <v>0.155</v>
+      </c>
+      <c r="EB12" s="43">
+        <v>0.1519047619047619</v>
+      </c>
+      <c r="EC12" s="43">
+        <v>0.13450000000000001</v>
+      </c>
+      <c r="ED12" s="43">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="EE12" s="43">
+        <v>0.1409090909090909</v>
+      </c>
+      <c r="EF12" s="43">
+        <v>0.152</v>
+      </c>
+      <c r="EG12" s="43">
+        <v>0.13210526315789473</v>
+      </c>
+      <c r="EH12" s="43">
+        <v>0.10043478260869565</v>
+      </c>
+      <c r="EI12" s="43">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="EJ12" s="43">
+        <v>4.0952380952380955E-2</v>
+      </c>
+      <c r="EK12" s="43">
+        <v>3.727272727272727E-2</v>
+      </c>
+      <c r="EL12" s="43">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="EM12" s="43">
+        <v>2.4347826086956521E-2</v>
+      </c>
+      <c r="EN12" s="43">
+        <v>1.380952380952381E-2</v>
+      </c>
+      <c r="EO12" s="43">
+        <v>1.9E-2</v>
+      </c>
+      <c r="EP12" s="43">
+        <v>1.4E-2</v>
+      </c>
+      <c r="EQ12" s="43">
+        <v>1.1428571428571429E-2</v>
+      </c>
+      <c r="ER12" s="43">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="ES12" s="43">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="ET12" s="43">
+        <v>8.4090909090909091E-2</v>
+      </c>
+      <c r="EU12" s="43">
+        <v>8.3809523809523806E-2</v>
+      </c>
+      <c r="EV12" s="43">
+        <v>8.9545454545454539E-2</v>
+      </c>
+      <c r="EW12" s="43">
+        <v>9.1428571428571428E-2</v>
+      </c>
+      <c r="EX12" s="43">
+        <v>9.7142857142857142E-2</v>
+      </c>
+      <c r="EY12" s="43">
+        <v>0.10260869565217391</v>
+      </c>
+      <c r="EZ12" s="43">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="FA12" s="43">
+        <v>0.10476190476190476</v>
+      </c>
+      <c r="FB12" s="43">
+        <v>9.35E-2</v>
+      </c>
+      <c r="FC12" s="43">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="FD12" s="43">
+        <v>7.4285714285714288E-2</v>
+      </c>
+      <c r="FE12" s="43">
+        <v>9.8947368421052631E-2</v>
+      </c>
+      <c r="FF12" s="43">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="FG12" s="43">
+        <v>0.06</v>
+      </c>
+      <c r="FH12" s="43">
+        <v>4.409090909090909E-2</v>
+      </c>
+      <c r="FI12" s="43">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="FJ12" s="43">
+        <v>3.5454545454545454E-2</v>
+      </c>
+      <c r="FK12" s="43">
+        <v>4.363636363636364E-2</v>
+      </c>
+      <c r="FL12" s="43">
+        <v>1.6E-2</v>
+      </c>
+      <c r="FM12" s="43">
+        <v>4.7272727272727272E-2</v>
+      </c>
+      <c r="FN12" s="43">
+        <v>6.7894736842105258E-2</v>
+      </c>
+      <c r="FO12" s="43">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="FP12" s="43">
+        <v>4.3333333333333335E-2</v>
+      </c>
+      <c r="FQ12" s="43">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="FR12" s="43">
+        <v>5.2380952380952382E-2</v>
+      </c>
+      <c r="FS12" s="43">
+        <v>3.0952380952380953E-2</v>
+      </c>
+      <c r="FT12" s="43">
+        <v>3.2380952380952378E-2</v>
+      </c>
+      <c r="FU12" s="43">
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="FV12" s="43">
+        <v>2.6363636363636363E-2</v>
+      </c>
+      <c r="FW12" s="43">
+        <v>3.2857142857142856E-2</v>
+      </c>
+      <c r="FX12" s="43">
+        <v>0.02</v>
+      </c>
+      <c r="FY12" s="43">
+        <v>1.6818181818181819E-2</v>
+      </c>
+      <c r="FZ12" s="43">
+        <v>2.1666666666666667E-2</v>
+      </c>
+      <c r="GA12" s="43">
+        <v>2.9090909090909091E-2</v>
+      </c>
+      <c r="GB12" s="43">
+        <v>2.75E-2</v>
+      </c>
+      <c r="GC12" s="43">
+        <v>1.7894736842105262E-2</v>
+      </c>
+      <c r="GD12" s="43">
+        <v>2.7727272727272729E-2</v>
+      </c>
+      <c r="GE12" s="43">
+        <v>2.3181818181818182E-2</v>
+      </c>
+      <c r="GF12" s="43">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="GG12" s="43">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="GH12" s="43">
+        <v>3.2272727272727272E-2</v>
+      </c>
+      <c r="GI12" s="43">
+        <v>7.1904761904761902E-2</v>
+      </c>
+      <c r="GJ12" s="43">
+        <v>2.238095238095238E-2</v>
+      </c>
+      <c r="GK12" s="43">
+        <v>1.5238095238095238E-2</v>
+      </c>
+      <c r="GL12" s="43">
+        <v>0.12473684210526316</v>
+      </c>
+      <c r="GM12" s="43">
+        <v>0.22772727272727272</v>
+      </c>
+      <c r="GN12" s="43">
+        <v>0.25526315789473686</v>
+      </c>
+      <c r="GO12" s="43">
+        <v>0.3125</v>
+      </c>
+      <c r="GP12" s="43">
+        <v>0.29409090909090907</v>
+      </c>
+      <c r="GQ12" s="43">
+        <v>0.2280952380952381</v>
+      </c>
+      <c r="GR12" s="43">
+        <v>0.2742857142857143</v>
+      </c>
+      <c r="GS12" s="43">
+        <v>0.26954545454545453</v>
+      </c>
+      <c r="GT12" s="43">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="GU12" s="43">
+        <v>0.29739130434782607</v>
+      </c>
+      <c r="GV12" s="43">
+        <v>0.29190476190476189</v>
+      </c>
+      <c r="GW12" s="43">
+        <v>0.32650000000000001</v>
+      </c>
+      <c r="GX12" s="43">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="GY12" s="43">
+        <v>0.50523809523809526</v>
+      </c>
+      <c r="GZ12" s="43">
+        <v>0.51149999999999995</v>
+      </c>
+      <c r="HA12" s="43">
+        <v>0.52105263157894732</v>
+      </c>
+      <c r="HB12" s="43">
+        <v>0.73739130434782607</v>
+      </c>
+      <c r="HC12" s="43">
+        <v>0.79842105263157892</v>
+      </c>
+      <c r="HD12" s="43">
+        <v>0.88909090909090904</v>
+      </c>
+      <c r="HE12" s="43">
+        <v>0.98272727272727278</v>
+      </c>
+      <c r="HF12" s="43">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="HG12" s="43">
+        <v>1.0143478260869565</v>
+      </c>
+      <c r="HH12" s="43">
+        <v>1.0295000000000001</v>
+      </c>
+      <c r="HI12" s="43">
+        <v>1.0747619047619048</v>
+      </c>
+      <c r="HJ12" s="43">
+        <v>1.2295238095238095</v>
+      </c>
+      <c r="HK12" s="43">
+        <v>1.3220000000000001</v>
+      </c>
+      <c r="HL12" s="43">
+        <v>1.4133333333333333</v>
+      </c>
+      <c r="HM12" s="43">
+        <v>1.5678947368421052</v>
+      </c>
+      <c r="HN12" s="43">
+        <v>1.6966666666666668</v>
+      </c>
+      <c r="HO12" s="43">
+        <v>1.7576190476190476</v>
+      </c>
+      <c r="HP12" s="43">
+        <v>1.864090909090909</v>
+      </c>
+      <c r="HQ12" s="43">
+        <v>1.8990476190476191</v>
+      </c>
+      <c r="HR12" s="43">
+        <v>1.9571428571428571</v>
+      </c>
+      <c r="HS12" s="43">
+        <v>2.0339130434782611</v>
+      </c>
+      <c r="HT12" s="43">
+        <v>2.1263157894736842</v>
+      </c>
+      <c r="HU12" s="43">
+        <v>2.249090909090909</v>
+      </c>
+      <c r="HV12" s="43">
+        <v>2.3264999999999998</v>
+      </c>
+      <c r="HW12" s="43">
+        <v>2.3657894736842104</v>
+      </c>
+      <c r="HX12" s="43">
+        <v>2.3742857142857141</v>
+      </c>
+      <c r="HY12" s="43">
+        <v>2.3884210526315788</v>
+      </c>
+      <c r="HZ12" s="43">
+        <v>2.4023809523809523</v>
+      </c>
+      <c r="IA12" s="43">
+        <v>2.382857142857143</v>
+      </c>
+      <c r="IB12" s="43">
+        <v>2.3527272727272726</v>
+      </c>
+      <c r="IC12" s="43">
+        <v>2.1705000000000001</v>
+      </c>
+      <c r="ID12" s="43">
+        <v>2.0986363636363636</v>
+      </c>
+      <c r="IE12" s="43">
+        <v>1.9495454545454545</v>
+      </c>
+      <c r="IF12" s="43">
+        <v>1.8945000000000001</v>
+      </c>
+      <c r="IG12" s="43">
+        <v>1.6468181818181817</v>
+      </c>
+      <c r="IH12" s="43">
+        <v>1.5421052631578946</v>
+      </c>
+      <c r="II12" s="43">
+        <v>1.5352380952380953</v>
+      </c>
+      <c r="IJ12" s="43">
+        <v>1.5223809523809524</v>
+      </c>
+      <c r="IK12" s="43">
+        <v>1.5152631578947369</v>
+      </c>
+      <c r="IL12" s="43">
+        <v>0.28636363636363638</v>
+      </c>
+      <c r="IM12" s="43">
+        <v>0.1380952380952381</v>
+      </c>
+      <c r="IN12" s="43">
+        <v>0.1275</v>
+      </c>
+      <c r="IO12" s="43">
+        <v>0.15954545454545455</v>
+      </c>
+      <c r="IP12" s="43">
+        <v>0.12681818181818183</v>
+      </c>
+      <c r="IQ12" s="43">
+        <v>0.10428571428571429</v>
+      </c>
+      <c r="IR12" s="43">
+        <v>0.10857142857142857</v>
+      </c>
+      <c r="IS12" s="43">
+        <v>0.10047619047619048</v>
+      </c>
+      <c r="IT12" s="43">
+        <v>9.1052631578947371E-2</v>
+      </c>
+      <c r="IU12" s="43">
+        <v>8.727272727272728E-2</v>
+      </c>
+      <c r="IV12" s="43">
+        <v>8.3684210526315791E-2</v>
+      </c>
+      <c r="IW12" s="43">
+        <v>4.2631578947368423E-2</v>
+      </c>
+      <c r="IX12" s="43">
+        <v>3.1304347826086959E-2</v>
+      </c>
+      <c r="IY12" s="43">
+        <v>2.0909090909090908E-2</v>
+      </c>
+      <c r="IZ12" s="43">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="JA12" s="43">
+        <v>3.5909090909090911E-2</v>
+      </c>
+      <c r="JB12" s="43">
+        <v>5.2380952380952382E-2</v>
+      </c>
+      <c r="JC12" s="43">
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="JD12" s="43">
+        <v>4.1904761904761903E-2</v>
+      </c>
+      <c r="JE12" s="43">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="JF12" s="43">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="JG12" s="43">
+        <v>0.06</v>
+      </c>
+      <c r="JH12" s="43">
+        <v>0.14949999999999999</v>
+      </c>
+      <c r="JI12" s="43">
+        <v>0.32578947368421052</v>
+      </c>
+      <c r="JJ12" s="43">
+        <v>0.44347826086956521</v>
+      </c>
+      <c r="JK12" s="43">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="JL12" s="43">
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="JM12" s="43">
+        <v>1.4947619047619047</v>
+      </c>
+      <c r="JN12" s="43">
+        <v>2.2324999999999999</v>
+      </c>
+      <c r="JO12" s="43">
+        <v>2.6308695652173912</v>
+      </c>
+      <c r="JP12" s="43">
+        <v>3.1266666666666665</v>
+      </c>
+      <c r="JQ12" s="43">
+        <v>3.7170000000000001</v>
+      </c>
+      <c r="JR12" s="43">
+        <v>4.1515000000000004</v>
+      </c>
+      <c r="JS12" s="43">
+        <v>4.2523809523809524</v>
+      </c>
+      <c r="JT12" s="43">
+        <v>4.5374999999999996</v>
+      </c>
+      <c r="JU12" s="43">
+        <v>4.6547368421052635</v>
+      </c>
+      <c r="JV12" s="43">
+        <v>4.6917391304347822</v>
+      </c>
+      <c r="JW12" s="43">
+        <v>4.9245000000000001</v>
       </c>
       <c r="JX12" s="43" t="s">
         <v>33</v>
@@ -19916,7 +19899,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:DW18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
@@ -59900,15 +59883,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C53001F3AE3D8545BA314EEC9388338C" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3281f45b7ce3d71c8408a9cd2e35b225">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cdb7d521-ec3b-43c2-af5c-470a246deabb" xmlns:ns3="d415ba26-13ce-424b-a4ae-39a67c1dc846" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e3b1160b624822ca0b4c0a4c748e2c9" ns2:_="" ns3:_="">
     <xsd:import namespace="cdb7d521-ec3b-43c2-af5c-470a246deabb"/>
@@ -60119,6 +60093,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -60131,14 +60114,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18257831-BA8F-4C7A-85E1-51904F4CC285}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{522B806E-3FFB-4272-BDCB-F79A21A172A4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -60153,6 +60128,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18257831-BA8F-4C7A-85E1-51904F4CC285}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
